--- a/biology/Botanique/Étage_infralittoral/Étage_infralittoral.xlsx
+++ b/biology/Botanique/Étage_infralittoral/Étage_infralittoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tage_infralittoral</t>
+          <t>Étage_infralittoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’étage infralittoral, appelé aussi zone infratidale, est la partie du littoral constamment immergée dont la frange supérieure peut cependant être émergée aux marées basses de vives eaux les plus grandes. Sa limite inférieure est celle qui est compatible avec la vie des algues photophiles et des phanérogames marines (entre -10 et -40 m en fonction notamment de la turbidité). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tage_infralittoral</t>
+          <t>Étage_infralittoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,138 +522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Définition</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Par rapport aux marées
-Par rapport aux conditions
-Formation/composition géologique
-Ensoleillement
-Temps d'immersion
-Autres critères</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mode abrité</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Flore
-Faune</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Mode semi-battu</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Flore
-Faune</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Mode battu</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Flore
-Faune</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_infralittoral</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Le rôle joué par l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
